--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1669295</v>
+        <v>0.321798</v>
       </c>
       <c r="H2">
-        <v>0.333859</v>
+        <v>0.6435960000000001</v>
       </c>
       <c r="I2">
-        <v>0.006785982139841531</v>
+        <v>0.03199153302728772</v>
       </c>
       <c r="J2">
-        <v>0.005473782762969397</v>
+        <v>0.02330154537707283</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N2">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O2">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P2">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q2">
-        <v>0.08389334149125001</v>
+        <v>1.4338353486</v>
       </c>
       <c r="R2">
-        <v>0.335573365965</v>
+        <v>5.735341394400001</v>
       </c>
       <c r="S2">
-        <v>1.843900181983454E-05</v>
+        <v>0.0007547751622730737</v>
       </c>
       <c r="T2">
-        <v>9.929852513089781E-06</v>
+        <v>0.0003704895917584668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1669295</v>
+        <v>0.321798</v>
       </c>
       <c r="H3">
-        <v>0.333859</v>
+        <v>0.6435960000000001</v>
       </c>
       <c r="I3">
-        <v>0.006785982139841531</v>
+        <v>0.03199153302728772</v>
       </c>
       <c r="J3">
-        <v>0.005473782762969397</v>
+        <v>0.02330154537707283</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>548.139267</v>
       </c>
       <c r="O3">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P3">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q3">
-        <v>30.5002045902255</v>
+        <v>58.79670661402201</v>
       </c>
       <c r="R3">
-        <v>183.001227541353</v>
+        <v>352.780239684132</v>
       </c>
       <c r="S3">
-        <v>0.006703670612561673</v>
+        <v>0.03095076001512434</v>
       </c>
       <c r="T3">
-        <v>0.005415135357880423</v>
+        <v>0.0227887754177363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1669295</v>
+        <v>0.321798</v>
       </c>
       <c r="H4">
-        <v>0.333859</v>
+        <v>0.6435960000000001</v>
       </c>
       <c r="I4">
-        <v>0.006785982139841531</v>
+        <v>0.03199153302728772</v>
       </c>
       <c r="J4">
-        <v>0.005473782762969397</v>
+        <v>0.02330154537707283</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N4">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O4">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P4">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q4">
-        <v>0.0486270641385</v>
+        <v>0.011870913688</v>
       </c>
       <c r="R4">
-        <v>0.194508256554</v>
+        <v>0.07122548212800001</v>
       </c>
       <c r="S4">
-        <v>1.068779128599294E-05</v>
+        <v>6.248884025587937E-06</v>
       </c>
       <c r="T4">
-        <v>5.755636460018986E-06</v>
+        <v>4.600998960963037E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1669295</v>
+        <v>0.321798</v>
       </c>
       <c r="H5">
-        <v>0.333859</v>
+        <v>0.6435960000000001</v>
       </c>
       <c r="I5">
-        <v>0.006785982139841531</v>
+        <v>0.03199153302728772</v>
       </c>
       <c r="J5">
-        <v>0.005473782762969397</v>
+        <v>0.02330154537707283</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N5">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O5">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P5">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q5">
-        <v>0.2166725991323334</v>
+        <v>0.528636560682</v>
       </c>
       <c r="R5">
-        <v>1.300035594794</v>
+        <v>2.114546242728</v>
       </c>
       <c r="S5">
-        <v>4.762268826931957E-05</v>
+        <v>0.0002782758468479817</v>
       </c>
       <c r="T5">
-        <v>3.846896991049576E-05</v>
+        <v>0.0001365947238969291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1669295</v>
+        <v>0.321798</v>
       </c>
       <c r="H6">
-        <v>0.333859</v>
+        <v>0.6435960000000001</v>
       </c>
       <c r="I6">
-        <v>0.006785982139841531</v>
+        <v>0.03199153302728772</v>
       </c>
       <c r="J6">
-        <v>0.005473782762969397</v>
+        <v>0.02330154537707283</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N6">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O6">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P6">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q6">
-        <v>0.02530606705466667</v>
+        <v>0.002798462674</v>
       </c>
       <c r="R6">
-        <v>0.151836402328</v>
+        <v>0.016790776044</v>
       </c>
       <c r="S6">
-        <v>5.562045904710105E-06</v>
+        <v>1.473119016730796E-06</v>
       </c>
       <c r="T6">
-        <v>4.49294620536856E-06</v>
+        <v>1.084644720177148E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>8.691366</v>
       </c>
       <c r="I7">
-        <v>0.1177731805878648</v>
+        <v>0.2880172473013563</v>
       </c>
       <c r="J7">
-        <v>0.1424992269115353</v>
+        <v>0.3146729613573546</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N7">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O7">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P7">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q7">
-        <v>1.455999360735</v>
+        <v>12.9087064954</v>
       </c>
       <c r="R7">
-        <v>8.735996164410002</v>
+        <v>77.45223897240001</v>
       </c>
       <c r="S7">
-        <v>0.0003200155624397285</v>
+        <v>0.006795181224478995</v>
       </c>
       <c r="T7">
-        <v>0.0002585042862923661</v>
+        <v>0.005003232837313188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>8.691366</v>
       </c>
       <c r="I8">
-        <v>0.1177731805878648</v>
+        <v>0.2880172473013563</v>
       </c>
       <c r="J8">
-        <v>0.1424992269115353</v>
+        <v>0.3146729613573546</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>548.139267</v>
       </c>
       <c r="O8">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P8">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q8">
         <v>529.342109829858</v>
@@ -951,10 +951,10 @@
         <v>4764.078988468722</v>
       </c>
       <c r="S8">
-        <v>0.1163446341863236</v>
+        <v>0.2786472500032227</v>
       </c>
       <c r="T8">
-        <v>0.140972456440832</v>
+        <v>0.3077483201377091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>8.691366</v>
       </c>
       <c r="I9">
-        <v>0.1177731805878648</v>
+        <v>0.2880172473013563</v>
       </c>
       <c r="J9">
-        <v>0.1424992269115353</v>
+        <v>0.3146729613573546</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N9">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O9">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P9">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q9">
-        <v>0.8439403299659999</v>
+        <v>0.1068728991653333</v>
       </c>
       <c r="R9">
-        <v>5.063641979796</v>
+        <v>0.9618560924880001</v>
       </c>
       <c r="S9">
-        <v>0.0001854904930887497</v>
+        <v>5.625820976506807E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001498367365773256</v>
+        <v>6.213364585135624E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>8.691366</v>
       </c>
       <c r="I10">
-        <v>0.1177731805878648</v>
+        <v>0.2880172473013563</v>
       </c>
       <c r="J10">
-        <v>0.1424992269115353</v>
+        <v>0.3146729613573546</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N10">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O10">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P10">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q10">
-        <v>3.760431521950667</v>
+        <v>4.759273239598</v>
       </c>
       <c r="R10">
-        <v>33.843883697556</v>
+        <v>28.555639437588</v>
       </c>
       <c r="S10">
-        <v>0.0008265090225765227</v>
+        <v>0.002505295489629887</v>
       </c>
       <c r="T10">
-        <v>0.001001464382074786</v>
+        <v>0.001844627280245926</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,40 +1107,40 @@
         <v>8.691366</v>
       </c>
       <c r="I11">
-        <v>0.1177731805878648</v>
+        <v>0.2880172473013563</v>
       </c>
       <c r="J11">
-        <v>0.1424992269115353</v>
+        <v>0.3146729613573546</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N11">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O11">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P11">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q11">
-        <v>0.4391959695413333</v>
+        <v>0.02519433861933333</v>
       </c>
       <c r="R11">
-        <v>3.952763725872</v>
+        <v>0.226749047574</v>
       </c>
       <c r="S11">
-        <v>9.653132343621436E-05</v>
+        <v>1.326237425959501E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001169650657588063</v>
+        <v>1.464745623500951E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.476950666666667</v>
+        <v>0.4280913333333333</v>
       </c>
       <c r="H12">
-        <v>10.430852</v>
+        <v>1.284274</v>
       </c>
       <c r="I12">
-        <v>0.1413442508670433</v>
+        <v>0.04255867975882065</v>
       </c>
       <c r="J12">
-        <v>0.1710189567472641</v>
+        <v>0.04649744387409933</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N12">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O12">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P12">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q12">
-        <v>1.74740240417</v>
+        <v>1.907446553933333</v>
       </c>
       <c r="R12">
-        <v>10.48441442502</v>
+        <v>11.4446793236</v>
       </c>
       <c r="S12">
-        <v>0.0003840633301492041</v>
+        <v>0.001004085499550535</v>
       </c>
       <c r="T12">
-        <v>0.0003102412154408524</v>
+        <v>0.0007392994207018271</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.476950666666667</v>
+        <v>0.4280913333333333</v>
       </c>
       <c r="H13">
-        <v>10.430852</v>
+        <v>1.284274</v>
       </c>
       <c r="I13">
-        <v>0.1413442508670433</v>
+        <v>0.04255867975882065</v>
       </c>
       <c r="J13">
-        <v>0.1710189567472641</v>
+        <v>0.04649744387409933</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>548.139267</v>
       </c>
       <c r="O13">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P13">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q13">
-        <v>635.2843966072761</v>
+        <v>78.21788988746199</v>
       </c>
       <c r="R13">
-        <v>5717.559569465485</v>
+        <v>703.9610089871579</v>
       </c>
       <c r="S13">
-        <v>0.1396297958447132</v>
+        <v>0.04117412824987911</v>
       </c>
       <c r="T13">
-        <v>0.1691866191356762</v>
+        <v>0.04547422880322106</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.476950666666667</v>
+        <v>0.4280913333333333</v>
       </c>
       <c r="H14">
-        <v>10.430852</v>
+        <v>1.284274</v>
       </c>
       <c r="I14">
-        <v>0.1413442508670433</v>
+        <v>0.04255867975882065</v>
       </c>
       <c r="J14">
-        <v>0.1710189567472641</v>
+        <v>0.04649744387409933</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N14">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O14">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P14">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q14">
-        <v>1.012846160052</v>
+        <v>0.01579200389244445</v>
       </c>
       <c r="R14">
-        <v>6.077076960312001</v>
+        <v>0.142128035032</v>
       </c>
       <c r="S14">
-        <v>0.000222614475194782</v>
+        <v>8.312957489976031E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001798249922280422</v>
+        <v>9.181137452053527E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.476950666666667</v>
+        <v>0.4280913333333333</v>
       </c>
       <c r="H15">
-        <v>10.430852</v>
+        <v>1.284274</v>
       </c>
       <c r="I15">
-        <v>0.1413442508670433</v>
+        <v>0.04255867975882065</v>
       </c>
       <c r="J15">
-        <v>0.1710189567472641</v>
+        <v>0.04649744387409933</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N15">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O15">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P15">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q15">
-        <v>4.513042559892445</v>
+        <v>0.7032508906553333</v>
       </c>
       <c r="R15">
-        <v>40.61738303903201</v>
+        <v>4.219505343931999</v>
       </c>
       <c r="S15">
-        <v>0.0009919261588063797</v>
+        <v>0.0003701933458617361</v>
       </c>
       <c r="T15">
-        <v>0.001201897003611808</v>
+        <v>0.0002725701409548921</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.476950666666667</v>
+        <v>0.4280913333333333</v>
       </c>
       <c r="H16">
-        <v>10.430852</v>
+        <v>1.284274</v>
       </c>
       <c r="I16">
-        <v>0.1413442508670433</v>
+        <v>0.04255867975882065</v>
       </c>
       <c r="J16">
-        <v>0.1710189567472641</v>
+        <v>0.04649744387409933</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N16">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O16">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P16">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q16">
-        <v>0.5270964491982223</v>
+        <v>0.003722824931777778</v>
       </c>
       <c r="R16">
-        <v>4.743868042784001</v>
+        <v>0.033505424386</v>
       </c>
       <c r="S16">
-        <v>0.000115851058179725</v>
+        <v>1.959706039288545E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001403744003071987</v>
+        <v>2.164371769496372E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.638195</v>
+        <v>2.234435</v>
       </c>
       <c r="H17">
-        <v>25.27639</v>
+        <v>4.46887</v>
       </c>
       <c r="I17">
-        <v>0.5137651856013139</v>
+        <v>0.222136250380138</v>
       </c>
       <c r="J17">
-        <v>0.4144188651259724</v>
+        <v>0.1617964951448416</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N17">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O17">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P17">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q17">
-        <v>6.3515460656625</v>
+        <v>9.9559720295</v>
       </c>
       <c r="R17">
-        <v>25.40618426265</v>
+        <v>39.823888118</v>
       </c>
       <c r="S17">
-        <v>0.00139601269161187</v>
+        <v>0.005240853080857044</v>
       </c>
       <c r="T17">
-        <v>0.0007517869063387158</v>
+        <v>0.002572529695525857</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.638195</v>
+        <v>2.234435</v>
       </c>
       <c r="H18">
-        <v>25.27639</v>
+        <v>4.46887</v>
       </c>
       <c r="I18">
-        <v>0.5137651856013139</v>
+        <v>0.222136250380138</v>
       </c>
       <c r="J18">
-        <v>0.4144188651259724</v>
+        <v>0.1617964951448416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>548.139267</v>
       </c>
       <c r="O18">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P18">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q18">
-        <v>2309.163647834355</v>
+        <v>408.260521019715</v>
       </c>
       <c r="R18">
-        <v>13854.98188700613</v>
+        <v>2449.56312611829</v>
       </c>
       <c r="S18">
-        <v>0.5075333983347693</v>
+        <v>0.214909544044383</v>
       </c>
       <c r="T18">
-        <v>0.4099786832422523</v>
+        <v>0.1582360281932442</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.638195</v>
+        <v>2.234435</v>
       </c>
       <c r="H19">
-        <v>25.27639</v>
+        <v>4.46887</v>
       </c>
       <c r="I19">
-        <v>0.5137651856013139</v>
+        <v>0.222136250380138</v>
       </c>
       <c r="J19">
-        <v>0.4144188651259724</v>
+        <v>0.1617964951448416</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N19">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O19">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P19">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q19">
-        <v>3.681544118085</v>
+        <v>0.08242681752666667</v>
       </c>
       <c r="R19">
-        <v>14.72617647234</v>
+        <v>0.49456090516</v>
       </c>
       <c r="S19">
-        <v>0.0008091702808172286</v>
+        <v>4.338972019004028E-05</v>
       </c>
       <c r="T19">
-        <v>0.0004357579453052314</v>
+        <v>3.194747361182929E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.638195</v>
+        <v>2.234435</v>
       </c>
       <c r="H20">
-        <v>25.27639</v>
+        <v>4.46887</v>
       </c>
       <c r="I20">
-        <v>0.5137651856013139</v>
+        <v>0.222136250380138</v>
       </c>
       <c r="J20">
-        <v>0.4144188651259724</v>
+        <v>0.1617964951448416</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N20">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O20">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P20">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q20">
-        <v>16.40423387712333</v>
+        <v>3.670638206165</v>
       </c>
       <c r="R20">
-        <v>98.42540326274001</v>
+        <v>14.68255282466</v>
       </c>
       <c r="S20">
-        <v>0.003605503046327182</v>
+        <v>0.001932234792794766</v>
       </c>
       <c r="T20">
-        <v>0.002912477082708436</v>
+        <v>0.0009484584487493234</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.638195</v>
+        <v>2.234435</v>
       </c>
       <c r="H21">
-        <v>25.27639</v>
+        <v>4.46887</v>
       </c>
       <c r="I21">
-        <v>0.5137651856013139</v>
+        <v>0.222136250380138</v>
       </c>
       <c r="J21">
-        <v>0.4144188651259724</v>
+        <v>0.1617964951448416</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N21">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O21">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P21">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q21">
-        <v>1.915916660146667</v>
+        <v>0.01943139157166667</v>
       </c>
       <c r="R21">
-        <v>11.49549996088</v>
+        <v>0.11658834943</v>
       </c>
       <c r="S21">
-        <v>0.0004211012477883041</v>
+        <v>1.022874191309105E-05</v>
       </c>
       <c r="T21">
-        <v>0.0003401599493675947</v>
+        <v>7.531333710368077E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.06026333333333334</v>
+        <v>0.343668</v>
       </c>
       <c r="H22">
-        <v>0.18079</v>
+        <v>1.031004</v>
       </c>
       <c r="I22">
-        <v>0.002449812068491889</v>
+        <v>0.03416573804816039</v>
       </c>
       <c r="J22">
-        <v>0.002964141106626561</v>
+        <v>0.03732774363101014</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N22">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O22">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P22">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q22">
-        <v>0.030286392775</v>
+        <v>1.5312815076</v>
       </c>
       <c r="R22">
-        <v>0.18171835665</v>
+        <v>9.187689045600001</v>
       </c>
       <c r="S22">
-        <v>6.656676698861666E-06</v>
+        <v>0.0008060711081736452</v>
       </c>
       <c r="T22">
-        <v>5.377174303647651E-06</v>
+        <v>0.0005935031464790743</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.06026333333333334</v>
+        <v>0.343668</v>
       </c>
       <c r="H23">
-        <v>0.18079</v>
+        <v>1.031004</v>
       </c>
       <c r="I23">
-        <v>0.002449812068491889</v>
+        <v>0.03416573804816039</v>
       </c>
       <c r="J23">
-        <v>0.002964141106626561</v>
+        <v>0.03732774363101014</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>548.139267</v>
       </c>
       <c r="O23">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P23">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q23">
-        <v>11.01089978677</v>
+        <v>62.792641870452</v>
       </c>
       <c r="R23">
-        <v>99.09809808093</v>
+        <v>565.133776834068</v>
       </c>
       <c r="S23">
-        <v>0.002420096727550702</v>
+        <v>0.03305423213592922</v>
       </c>
       <c r="T23">
-        <v>0.002932382596698611</v>
+        <v>0.03650631546931273</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,55 +1898,55 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.343668</v>
+      </c>
+      <c r="H24">
+        <v>1.031004</v>
+      </c>
+      <c r="I24">
+        <v>0.03416573804816039</v>
+      </c>
+      <c r="J24">
+        <v>0.03732774363101014</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G24">
-        <v>0.06026333333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.18079</v>
-      </c>
-      <c r="I24">
-        <v>0.002449812068491889</v>
-      </c>
-      <c r="J24">
-        <v>0.002964141106626561</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
       <c r="M24">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N24">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O24">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P24">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q24">
-        <v>0.01755488979</v>
+        <v>0.012677683408</v>
       </c>
       <c r="R24">
-        <v>0.10532933874</v>
+        <v>0.114099150672</v>
       </c>
       <c r="S24">
-        <v>3.858406865562337E-06</v>
+        <v>6.673569988955043E-06</v>
       </c>
       <c r="T24">
-        <v>3.116769401474372E-06</v>
+        <v>7.370537313390287E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.06026333333333334</v>
+        <v>0.343668</v>
       </c>
       <c r="H25">
-        <v>0.18079</v>
+        <v>1.031004</v>
       </c>
       <c r="I25">
-        <v>0.002449812068491889</v>
+        <v>0.03416573804816039</v>
       </c>
       <c r="J25">
-        <v>0.002964141106626561</v>
+        <v>0.03732774363101014</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N25">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O25">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P25">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q25">
-        <v>0.07822112368222223</v>
+        <v>0.564563700012</v>
       </c>
       <c r="R25">
-        <v>0.70399011314</v>
+        <v>3.387382200072</v>
       </c>
       <c r="S25">
-        <v>1.719229936831673E-05</v>
+        <v>0.0002971879991005294</v>
       </c>
       <c r="T25">
-        <v>2.083156383418907E-05</v>
+        <v>0.0002188169390683434</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,55 +2022,55 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.343668</v>
+      </c>
+      <c r="H26">
+        <v>1.031004</v>
+      </c>
+      <c r="I26">
+        <v>0.03416573804816039</v>
+      </c>
+      <c r="J26">
+        <v>0.03732774363101014</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G26">
-        <v>0.06026333333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.18079</v>
-      </c>
-      <c r="I26">
-        <v>0.002449812068491889</v>
-      </c>
-      <c r="J26">
-        <v>0.002964141106626561</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M26">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N26">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O26">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P26">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q26">
-        <v>0.009135760631111111</v>
+        <v>0.002988651484</v>
       </c>
       <c r="R26">
-        <v>0.08222184568</v>
+        <v>0.026897863356</v>
       </c>
       <c r="S26">
-        <v>2.007958008445761E-06</v>
+        <v>1.573234968029133E-06</v>
       </c>
       <c r="T26">
-        <v>2.433002388638862E-06</v>
+        <v>1.73753883660172E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.359705333333333</v>
+        <v>3.833734666666667</v>
       </c>
       <c r="H27">
-        <v>16.079116</v>
+        <v>11.501204</v>
       </c>
       <c r="I27">
-        <v>0.2178815887354446</v>
+        <v>0.3811305514842371</v>
       </c>
       <c r="J27">
-        <v>0.2636250273456322</v>
+        <v>0.4164038106156215</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.5025675000000001</v>
+        <v>4.4557</v>
       </c>
       <c r="N27">
-        <v>1.005135</v>
+        <v>8.9114</v>
       </c>
       <c r="O27">
-        <v>0.002717219326525538</v>
+        <v>0.02359296635235565</v>
       </c>
       <c r="P27">
-        <v>0.001814075008651434</v>
+        <v>0.0158997862915566</v>
       </c>
       <c r="Q27">
-        <v>2.69361371011</v>
+        <v>17.08197155426667</v>
       </c>
       <c r="R27">
-        <v>16.16168226066</v>
+        <v>102.4918293256</v>
       </c>
       <c r="S27">
-        <v>0.0005920320638060391</v>
+        <v>0.008992000277022358</v>
       </c>
       <c r="T27">
-        <v>0.0004782355737627623</v>
+        <v>0.006620731599778191</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.359705333333333</v>
+        <v>3.833734666666667</v>
       </c>
       <c r="H28">
-        <v>16.079116</v>
+        <v>11.501204</v>
       </c>
       <c r="I28">
-        <v>0.2178815887354446</v>
+        <v>0.3811305514842371</v>
       </c>
       <c r="J28">
-        <v>0.2636250273456322</v>
+        <v>0.4164038106156215</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>548.139267</v>
       </c>
       <c r="O28">
-        <v>0.9878703589865653</v>
+        <v>0.9674672354314614</v>
       </c>
       <c r="P28">
-        <v>0.9892857631315353</v>
+        <v>0.9779941651491894</v>
       </c>
       <c r="Q28">
-        <v>979.288317583108</v>
+        <v>700.4735033530519</v>
       </c>
       <c r="R28">
-        <v>8813.594858247972</v>
+        <v>6304.261530177468</v>
       </c>
       <c r="S28">
-        <v>0.2152387632806468</v>
+        <v>0.3687313209829232</v>
       </c>
       <c r="T28">
-        <v>0.2608004863581956</v>
+        <v>0.4072404971279659</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.359705333333333</v>
+        <v>3.833734666666667</v>
       </c>
       <c r="H29">
-        <v>16.079116</v>
+        <v>11.501204</v>
       </c>
       <c r="I29">
-        <v>0.2178815887354446</v>
+        <v>0.3811305514842371</v>
       </c>
       <c r="J29">
-        <v>0.2636250273456322</v>
+        <v>0.4164038106156215</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.291303</v>
+        <v>0.03688933333333334</v>
       </c>
       <c r="N29">
-        <v>0.582606</v>
+        <v>0.110668</v>
       </c>
       <c r="O29">
-        <v>0.001574980756763756</v>
+        <v>0.0001953293085472911</v>
       </c>
       <c r="P29">
-        <v>0.001051491575251461</v>
+        <v>0.0001974546703451743</v>
       </c>
       <c r="Q29">
-        <v>1.561298242716</v>
+        <v>0.1414239160302222</v>
       </c>
       <c r="R29">
-        <v>9.367789456295998</v>
+        <v>1.272815244272</v>
       </c>
       <c r="S29">
-        <v>0.0003431593095114399</v>
+        <v>7.444596708766377E-05</v>
       </c>
       <c r="T29">
-        <v>0.0002771994952793682</v>
+        <v>8.222087715558194E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.359705333333333</v>
+        <v>3.833734666666667</v>
       </c>
       <c r="H30">
-        <v>16.079116</v>
+        <v>11.501204</v>
       </c>
       <c r="I30">
-        <v>0.2178815887354446</v>
+        <v>0.3811305514842371</v>
       </c>
       <c r="J30">
-        <v>0.2636250273456322</v>
+        <v>0.4164038106156215</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.297988666666667</v>
+        <v>1.642759</v>
       </c>
       <c r="N30">
-        <v>3.893966</v>
+        <v>3.285518</v>
       </c>
       <c r="O30">
-        <v>0.007017803361096332</v>
+        <v>0.008698421754613059</v>
       </c>
       <c r="P30">
-        <v>0.007027858352498311</v>
+        <v>0.005862045700682549</v>
       </c>
       <c r="Q30">
-        <v>6.956836779339556</v>
+        <v>6.297902127278665</v>
       </c>
       <c r="R30">
-        <v>62.611531014056</v>
+        <v>37.78741276367199</v>
       </c>
       <c r="S30">
-        <v>0.001529050145748612</v>
+        <v>0.003315234280378161</v>
       </c>
       <c r="T30">
-        <v>0.001852719350358597</v>
+        <v>0.002440978167767134</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.359705333333333</v>
+        <v>3.833734666666667</v>
       </c>
       <c r="H31">
-        <v>16.079116</v>
+        <v>11.501204</v>
       </c>
       <c r="I31">
-        <v>0.2178815887354446</v>
+        <v>0.3811305514842371</v>
       </c>
       <c r="J31">
-        <v>0.2636250273456322</v>
+        <v>0.4164038106156215</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1515973333333333</v>
+        <v>0.008696333333333334</v>
       </c>
       <c r="N31">
-        <v>0.454792</v>
+        <v>0.026089</v>
       </c>
       <c r="O31">
-        <v>0.000819637569049068</v>
+        <v>4.604715302246609E-05</v>
       </c>
       <c r="P31">
-        <v>0.0008208119320634572</v>
+        <v>4.654818822636402E-05</v>
       </c>
       <c r="Q31">
-        <v>0.8125170359857777</v>
+        <v>0.03333943457288889</v>
       </c>
       <c r="R31">
-        <v>7.312653323872</v>
+        <v>0.300054911156</v>
       </c>
       <c r="S31">
-        <v>0.0001785839357316686</v>
+        <v>1.754997682573156E-05</v>
       </c>
       <c r="T31">
-        <v>0.0002163865680358501</v>
+        <v>1.938284295471118E-05</v>
       </c>
     </row>
   </sheetData>
